--- a/Project/Вакансии пример.xlsx
+++ b/Project/Вакансии пример.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Слово поиска</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>devops</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Влад</t>
+  </si>
+  <si>
+    <t>Клиент</t>
   </si>
 </sst>
 </file>
@@ -85,7 +94,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -367,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F10"/>
+  <dimension ref="A3:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,25 +391,31 @@
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
@@ -413,8 +428,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="1">
         <v>180000</v>
       </c>
@@ -425,8 +441,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <v>240000</v>
       </c>
@@ -437,8 +454,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1">
         <v>295000</v>
       </c>
@@ -449,8 +467,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1">
         <v>220000</v>
       </c>
@@ -461,8 +480,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1">
@@ -475,8 +497,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="1">
         <v>350000</v>
       </c>
@@ -488,9 +511,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
